--- a/Gerard i Òscar/PL_GerardMoreno_ÒscarLosada_M1.xlsx
+++ b/Gerard i Òscar/PL_GerardMoreno_ÒscarLosada_M1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uab-my.sharepoint.com/personal/1598367_uab_cat/Documents/5è CURS/LACE/Lab LACE - Gerard i Òscar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergio/Desktop/University/5nto/LACE/LACE/Gerard i Òscar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="8_{59938479-593B-4345-BCF8-AD12D17C686D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F61B5181-0666-4BDA-A069-5FA7FD8E4781}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012ED93-C36C-1243-9841-2F8935A81BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22688" windowHeight="12257" tabRatio="764" xr2:uid="{C1122783-245A-4FED-BDEB-F09B1698DCDF}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" tabRatio="764" xr2:uid="{C1122783-245A-4FED-BDEB-F09B1698DCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Pràctica L" sheetId="3" r:id="rId1"/>
@@ -2047,8 +2047,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>244889</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -3154,7 +3154,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -5829,22 +5829,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A2A08-C8FC-453C-80F9-B1A1AF5D3A5F}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="271" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="23.3" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.3984375" style="1"/>
+    <col min="1" max="1" width="29.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="21" customFormat="1" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="21" customFormat="1" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5877,12 +5877,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5892,7 +5892,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -5902,7 +5902,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -5912,7 +5912,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -5922,7 +5922,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -5932,7 +5932,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -5942,7 +5942,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -5952,7 +5952,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -5962,111 +5962,111 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="22" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
     </row>
-    <row r="24" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
     </row>
-    <row r="43" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
     </row>
-    <row r="44" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
     </row>
-    <row r="45" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:1" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
         <v>13</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="28.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:17" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>32</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
     </row>
-    <row r="56" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="25">
         <v>1</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="25">
         <v>3</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="25">
         <v>5</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="25"/>
       <c r="B61" s="4"/>
       <c r="C61" s="25"/>
@@ -6263,7 +6263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N62" s="12" t="s">
         <v>47</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>21120.18</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>4</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>97495.875999999975</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="2" t="s">
         <v>3</v>
@@ -6322,7 +6322,7 @@
         <v>7.843616760990864</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="F65" s="9"/>
       <c r="N65" s="12" t="s">
@@ -6333,47 +6333,47 @@
         <v>3.1824463052837091</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -6381,12 +6381,12 @@
       <c r="E76" s="6"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="15" t="s">
         <v>55</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="17" t="s">
         <v>14</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>16694.7</v>
       </c>
       <c r="D79" s="28">
-        <f>(C79-P56)/O56*4</f>
+        <f>(C79-P56)/O56*B79</f>
         <v>914.91679322392008</v>
       </c>
       <c r="E79" s="28">
@@ -6419,7 +6419,7 @@
         <v>99.847556724306997</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="12" t="s">
         <v>16</v>
       </c>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="C81" s="40"/>
     </row>
-    <row r="82" spans="1:3" ht="23.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14" t="s">
         <v>17</v>
       </c>
@@ -6452,7 +6452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
